--- a/classification/droptc/message/neo-bert/unfreeze/24677315/prediction.xlsx
+++ b/classification/droptc/message/neo-bert/unfreeze/24677315/prediction.xlsx
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 1, 0, 0]</t>
+          <t>[1, 0, 1, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Normal', 'RegulationViolation']</t>
+          <t>['Normal', 'HardwareFault', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1639,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['Normal', 'CommunicationIssue']</t>
+          <t>['CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2017,12 +2017,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3610,12 +3610,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'RegulationViolation']</t>
         </is>
       </c>
     </row>

--- a/classification/droptc/message/neo-bert/unfreeze/24677315/prediction.xlsx
+++ b/classification/droptc/message/neo-bert/unfreeze/24677315/prediction.xlsx
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 1, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault', 'RegulationViolation']</t>
+          <t>['Normal', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
@@ -748,12 +748,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['ParamViolation']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1099,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['HardwareFault', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['ParamViolation']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2638,12 +2638,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2665,12 +2665,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -3556,12 +3556,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>
